--- a/outputs/spydefi_analysis.xlsx
+++ b/outputs/spydefi_analysis.xlsx
@@ -43,7 +43,7 @@
     <t>Other Wallets</t>
   </si>
   <si>
-    <t>2025-05-21 22:26</t>
+    <t>2025-05-21 22:38</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/outputs/spydefi_analysis.xlsx
+++ b/outputs/spydefi_analysis.xlsx
@@ -43,7 +43,7 @@
     <t>Other Wallets</t>
   </si>
   <si>
-    <t>2025-05-21 22:38</t>
+    <t>2025-05-22 08:14</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2">
